--- a/biology/Botanique/Typhula_filiformis/Typhula_filiformis.xlsx
+++ b/biology/Botanique/Typhula_filiformis/Typhula_filiformis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clavaire filiforme
 Typhula filiformis, le Clavaire filiforme, est une espèce de champignons de la famille des Typhulaceae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Filiforme, jusqu'à 15 cm de hauteur, couleur beige.
 </t>
@@ -543,7 +557,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En troupes dans les feuilles mortes.
 </t>
@@ -574,7 +590,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Europe, Afrique du Nord.
 </t>
@@ -605,11 +623,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Typhula filiformis (Bull.) Fr., 1821[1].
-Le basionyme de ce taxon est : Clavaria triuncialis var. juncea Alb. &amp; Schwein., 1805[1]
-Typhula filiformis a pour synonymes[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Typhula filiformis (Bull.) Fr., 1821.
+Le basionyme de ce taxon est : Clavaria triuncialis var. juncea Alb. &amp; Schwein., 1805
+Typhula filiformis a pour synonymes :
 Clavaria filiformis Bull., 1790
 Clavaria hortulana Velen., 1922
 Clavaria juncea (Alb. &amp; Schwein.) Fr., 1818
@@ -646,7 +666,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Elias Fries, Systema Mycologicum, vol. 1, 1821, 520 p. (lire en ligne), p. 496</t>
         </is>
